--- a/source/img/design/resource/Checklist-Excel.xlsx
+++ b/source/img/design/resource/Checklist-Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caijiaqi/Library/Mobile Documents/com~apple~CloudDocs/走查表下载资源/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caijiaqi/miniapp-docs/source/img/design/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{750F94C2-0CD6-1844-9DA6-220122018AE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{32C5FB5D-C696-B34B-B59E-D566811C4B1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>第一部分：信息架构与流程设计</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>系统特性</t>
-  </si>
-  <si>
-    <t>是否配置了分享回流文案？</t>
   </si>
   <si>
     <t>是否考虑了iOS、Android双端差异导致的区别处理？（键盘设置、手势等）</t>
@@ -202,9 +199,6 @@
     <t>是否指定了键盘类型？（英文键盘、数字键盘、密码键盘等）</t>
   </si>
   <si>
-    <t>是否考虑到了键盘弹出引起的页面遮挡?</t>
-  </si>
-  <si>
     <t>是否需要保存用户输入的数据或者进度？</t>
   </si>
   <si>
@@ -220,20 +214,10 @@
     <t>手势使用是否符合用户认知？</t>
   </si>
   <si>
-    <t>特殊网络状态（弱网、超时、无网）是否做出应对？</t>
-  </si>
-  <si>
     <t>各种登录状态是否作出应对？（未登录、注销后、账号切换、游客账号）</t>
   </si>
   <si>
     <t>是否考虑了全面屏及iPhoneX等异形屏幕的适配？</t>
-  </si>
-  <si>
-    <t>百度智能小程序UE走查表V1.0</t>
-    <rPh sb="0" eb="1">
-      <t>zou</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是否存在错别字/大小写混用/全角半角符号混用情况？</t>
@@ -279,6 +263,33 @@
       </rPr>
       <t>必要的撤销功能）</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否考虑到了键盘弹出引起的页面遮挡?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度智能小程序设计走查表V1.0</t>
+    <rPh sb="0" eb="1">
+      <t>zou</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否配置了分享回流文案？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当小程序功能有高App版本依赖，低版本无法使用时，是否已提示低版本用户升级？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当小程序功能有高App版本依赖，低版本无法达到最佳体验时，是否针对低版本做出适配？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊网络状态是否做出应对？（弱网、超时、无网）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +354,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +373,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -506,13 +523,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="dotted">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="dotted">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="dotted">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="dotted">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -543,6 +597,21 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -566,9 +635,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1783,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV53"/>
+  <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="21.75" customHeight="1"/>
@@ -1799,21 +1865,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="35" customHeight="1">
-      <c r="B1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="2:4" ht="24.75" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="2:4" ht="23" customHeight="1">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
@@ -1822,21 +1888,21 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="23" customHeight="1">
-      <c r="B4" s="15"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="23" customHeight="1">
-      <c r="B5" s="14"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="23" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4"/>
@@ -1845,346 +1911,360 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="23" customHeight="1">
-      <c r="B7" s="14"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="23" customHeight="1">
-      <c r="B8" s="15"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="23" customHeight="1">
-      <c r="B9" s="14"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="23" customHeight="1">
-      <c r="B10" s="15"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="23" customHeight="1">
-      <c r="B11" s="14"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="23" customHeight="1">
-      <c r="B12" s="15"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="22.75" customHeight="1">
-      <c r="B13" s="16"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="24.75" customHeight="1">
+      <c r="B14" s="30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="24.75" customHeight="1">
-      <c r="B14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="2:4" ht="23" customHeight="1">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="23" customHeight="1">
-      <c r="B16" s="15"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="23" customHeight="1">
-      <c r="B17" s="14"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="23" customHeight="1">
-      <c r="B18" s="15"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="23" customHeight="1">
-      <c r="B19" s="14"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="23" customHeight="1">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="23" customHeight="1">
-      <c r="B21" s="14"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="23" customHeight="1">
-      <c r="B22" s="15"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="23" customHeight="1">
-      <c r="B23" s="14"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="23" customHeight="1">
-      <c r="B24" s="15"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="23" customHeight="1">
-      <c r="B25" s="27"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="23" customHeight="1">
-      <c r="B26" s="15"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="23" customHeight="1">
-      <c r="B27" s="14"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="23" customHeight="1">
-      <c r="B28" s="15"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="23" customHeight="1">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="23" customHeight="1">
-      <c r="B30" s="15"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="4"/>
       <c r="D30" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="23" customHeight="1">
-      <c r="B31" s="14"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="2"/>
       <c r="D31" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="23" customHeight="1">
-      <c r="B32" s="15"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4"/>
       <c r="D32" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="23" customHeight="1">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="23" customHeight="1">
-      <c r="B34" s="20"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="23" customHeight="1">
-      <c r="B35" s="20"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="23" customHeight="1">
-      <c r="B36" s="20"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="23" customHeight="1">
-      <c r="B37" s="20"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="23" customHeight="1">
-      <c r="B38" s="20"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="23" customHeight="1">
-      <c r="B39" s="20"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="23" customHeight="1">
-      <c r="B40" s="20"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="22.75" customHeight="1">
-      <c r="B41" s="21"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="24.75" customHeight="1">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="17"/>
     </row>
     <row r="43" spans="2:4" ht="23" customHeight="1">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="23" customHeight="1">
-      <c r="B44" s="15"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="23" customHeight="1">
-      <c r="B45" s="14"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="23" customHeight="1">
-      <c r="B46" s="15"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="23" customHeight="1">
-      <c r="B47" s="14"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="23" customHeight="1">
-      <c r="B48" s="15"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="23" customHeight="1">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="23" customHeight="1">
-      <c r="B50" s="20"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="23" customHeight="1">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3" t="s">
-        <v>22</v>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="23" customHeight="1">
-      <c r="B52" s="15"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="22.75" customHeight="1">
-      <c r="B53" s="16"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="23" customHeight="1">
+      <c r="B53" s="13"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="23" customHeight="1">
+      <c r="B54" s="13"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="22.75" customHeight="1">
+      <c r="B55" s="14"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2194,10 +2274,10 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B51:B55"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B51:B53"/>
     <mergeCell ref="B43:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B33:B41"/>
